--- a/Documents/Task_diagram_generator/Moricka_abra/moricka_taszk.xlsx
+++ b/Documents/Task_diagram_generator/Moricka_abra/moricka_taszk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Taszk A</t>
   </si>
@@ -36,13 +36,469 @@
   </si>
   <si>
     <t>Idő</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Látszólagos futás</t>
+  </si>
+  <si>
+    <t>Valós futás</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Taszváltási idő</t>
+  </si>
+  <si>
+    <t>Preemptálási idő</t>
+  </si>
+  <si>
+    <t>Taszk C 
+(Magas prio.)</t>
+  </si>
+  <si>
+    <t>Taszk B
+(Közepes prio.)</t>
+  </si>
+  <si>
+    <t>Taszk A
+(Alacsony prio.)</t>
+  </si>
+  <si>
+    <t>Megszakítás-késleltetési idő</t>
+  </si>
+  <si>
+    <t>Taszk</t>
+  </si>
+  <si>
+    <t>Megszakítás kezelő</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Taszkváltási idő = Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≈ Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≈ Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>(Prioritások: Taszk A = Taszk B = Taszk C)</t>
+  </si>
+  <si>
+    <r>
+      <t>Preemptálási idő = Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≈ Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Δ: Megszakítás-késleltetés</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>A megszakítás a t időpillanatban érkezik.</t>
+  </si>
+  <si>
+    <t>Szemafor tulajdonos</t>
+  </si>
+  <si>
+    <t>: szemafor igénylése,</t>
+  </si>
+  <si>
+    <t>: szemafor visszaadása.</t>
+  </si>
+  <si>
+    <t>Szemafor-váltási idő = Δ1 + Δ2</t>
+  </si>
+  <si>
+    <t>Szemafor-váltási idő = Δ</t>
+  </si>
+  <si>
+    <t>Szemafor-váltási idő 1.</t>
+  </si>
+  <si>
+    <t>Szemafor-váltási idő 2.</t>
+  </si>
+  <si>
+    <t>Deadlock-feloldási idő</t>
+  </si>
+  <si>
+    <t>: erőforrás igénylése,</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>: preemptálás.</t>
+  </si>
+  <si>
+    <t>: erőforrás visszaadása,</t>
+  </si>
+  <si>
+    <t>Datagram-átviteli idő</t>
+  </si>
+  <si>
+    <t>: szemafor elvétele.</t>
+  </si>
+  <si>
+    <t>: szemafor adása,</t>
+  </si>
+  <si>
+    <t>Adat betöltése</t>
+  </si>
+  <si>
+    <t>Adat elvétele</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datagram-átviteli idő = Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Deadlock-feloldási idő = Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Taszkok közötti üzenet-késleltetés</t>
+  </si>
+  <si>
+    <r>
+      <t>Taszkok közötti üzenet-késleltetés = Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>(üzenet)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +507,70 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -242,17 +752,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="0.59996337778862885"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="0.59996337778862885"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="0.59996337778862885"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="0.59996337778862885"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -270,6 +1029,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -285,6 +1169,1157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112567</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>493567</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Balra-jobbra nyíl 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-1556473" y="1894177"/>
+          <a:ext cx="3719079" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="hu-HU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Egyenes összekötő nyíllal 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11753850" y="12392025"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Egyenes összekötő nyíllal 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14706600" y="11820525"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Egyenes összekötő nyíllal 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="15478125" y="12525375"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>37893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>173627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Egyenes összekötő nyíllal 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11737026" y="13720763"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Egyenes összekötő nyíllal 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11734645" y="14059108"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Egyenes összekötő nyíllal 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11753850" y="12392025"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Egyenes összekötő nyíllal 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14706600" y="11820525"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Egyenes összekötő nyíllal 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="15478125" y="12525375"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>37893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>173627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Egyenes összekötő nyíllal 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11674078" y="13734843"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Egyenes összekötő nyíllal 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11671697" y="14073188"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Egyenes összekötő nyíllal 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11753850" y="16106775"/>
+          <a:ext cx="0" cy="152402"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Egyenes összekötő nyíllal 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="15478125" y="16240125"/>
+          <a:ext cx="0" cy="152402"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>37893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>173627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Egyenes összekötő nyíllal 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11674078" y="17497218"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Egyenes összekötő nyíllal 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11671697" y="17835563"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Egyenes összekötő nyíllal 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12366171" y="23190654"/>
+          <a:ext cx="0" cy="153762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1360</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1360</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>155123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Egyenes összekötő nyíllal 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13151303" y="22752504"/>
+          <a:ext cx="0" cy="153762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>37893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>173627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Egyenes összekötő nyíllal 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11674078" y="17497218"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Egyenes összekötő nyíllal 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11671697" y="17835563"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>91677</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>37893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>91677</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>173627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Egyenes összekötő nyíllal 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13241620" y="24585179"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>184719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Egyenes összekötő nyíllal 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13324114" y="23192014"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>58065</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>187453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>120930</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>25052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Szögletes összekötő 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6060000" flipH="1" flipV="1">
+          <a:off x="12134098" y="26211420"/>
+          <a:ext cx="637699" cy="62865"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,140 +2585,1911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:O13"/>
+  <dimension ref="D2:AH142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:O13"/>
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S126" sqref="S126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="2.5703125" style="22" customWidth="1"/>
+    <col min="22" max="22" width="2.5703125" style="22" customWidth="1"/>
+    <col min="24" max="24" width="2.5703125" style="22" customWidth="1"/>
+    <col min="26" max="26" width="2.5703125" style="22" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" style="22" customWidth="1"/>
+    <col min="30" max="30" width="2.5703125" style="22" customWidth="1"/>
+    <col min="32" max="32" width="2.5703125" style="22" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+    <row r="2" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="4:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="15"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="15"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+      <c r="R4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="45"/>
+    </row>
+    <row r="5" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="9"/>
+    </row>
+    <row r="6" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="E6" s="14"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="9"/>
+    </row>
+    <row r="7" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="4:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="15"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="15"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+      <c r="R7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="44"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="9"/>
+    </row>
+    <row r="9" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="E9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="9"/>
+    </row>
+    <row r="10" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="4:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="15"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="R10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="45"/>
+    </row>
+    <row r="11" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="9"/>
+    </row>
+    <row r="12" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="4:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="E13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="18"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="18"/>
+    </row>
+    <row r="15" spans="4:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="46"/>
+      <c r="R22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="44"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="46"/>
+    </row>
+    <row r="23" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="21"/>
+    </row>
+    <row r="24" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="E24" s="14"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="21"/>
+    </row>
+    <row r="25" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="R25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="44"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="46"/>
+    </row>
+    <row r="26" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="21"/>
+    </row>
+    <row r="27" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="E27" s="14"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="21"/>
+    </row>
+    <row r="28" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="2"/>
+      <c r="R28" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="46"/>
+    </row>
+    <row r="29" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="21"/>
+    </row>
+    <row r="30" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="5"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="E31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="18"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="18"/>
+    </row>
+    <row r="32" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="S32" s="23"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="7"/>
+    </row>
+    <row r="33" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R40" s="32"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="33"/>
+    </row>
+    <row r="41" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R41" s="32"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="33"/>
+    </row>
+    <row r="42" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S42" s="35"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="21"/>
+    </row>
+    <row r="43" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="49"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="46"/>
+    </row>
+    <row r="44" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="30"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="21"/>
+    </row>
+    <row r="45" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S45" s="35"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="21"/>
+    </row>
+    <row r="46" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="36"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="2"/>
+    </row>
+    <row r="47" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="34"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="21"/>
+    </row>
+    <row r="48" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R48" s="5"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S49" s="20"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="18"/>
+    </row>
+    <row r="51" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R58" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S58" s="49"/>
+      <c r="T58" s="48"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="57"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="21"/>
+    </row>
+    <row r="59" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R59" s="31"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="21"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="60"/>
+      <c r="AG59" s="60"/>
+    </row>
+    <row r="60" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S60" s="35"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="40"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="21"/>
+    </row>
+    <row r="61" spans="18:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R61" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="S61" s="49"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="48"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="48"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="4"/>
+    </row>
+    <row r="62" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="52"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="21"/>
+      <c r="AD62" s="40"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="21"/>
+    </row>
+    <row r="63" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S63" s="35"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="26"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="40"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="21"/>
+    </row>
+    <row r="64" spans="18:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R64" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" s="36"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="48"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="48"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="48"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="48"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="46"/>
+      <c r="AF64" s="48"/>
+      <c r="AG64" s="46"/>
+    </row>
+    <row r="65" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="52"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="26"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="26"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="26"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="26"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="40"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="26"/>
+      <c r="AG65" s="21"/>
+    </row>
+    <row r="66" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R66" s="5"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="41"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S67" s="20"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="18"/>
+    </row>
+    <row r="68" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S68" s="23"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="7"/>
+    </row>
+    <row r="69" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R77" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="S77" s="49"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="55"/>
+      <c r="W77" s="56"/>
+      <c r="X77" s="55"/>
+      <c r="Y77" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="55"/>
+      <c r="AA77" s="56"/>
+      <c r="AB77" s="55"/>
+      <c r="AC77" s="57"/>
+      <c r="AD77" s="50"/>
+      <c r="AE77" s="46"/>
+      <c r="AF77" s="48"/>
+      <c r="AG77" s="46"/>
+    </row>
+    <row r="78" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="31"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="26"/>
+      <c r="Y78" s="21"/>
+      <c r="Z78" s="26"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="40"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="40"/>
+      <c r="AE78" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="60"/>
+      <c r="AG78" s="60"/>
+    </row>
+    <row r="79" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S79" s="35"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="26"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="40"/>
+      <c r="AC79" s="21"/>
+      <c r="AD79" s="40"/>
+      <c r="AE79" s="21"/>
+      <c r="AF79" s="26"/>
+      <c r="AG79" s="21"/>
+    </row>
+    <row r="80" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R80" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="S80" s="49"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="48"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="39"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="50"/>
+      <c r="AC80" s="46"/>
+      <c r="AD80" s="50"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="39"/>
+      <c r="AG80" s="4"/>
+    </row>
+    <row r="81" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R81" s="52"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="21"/>
+      <c r="V81" s="26"/>
+      <c r="W81" s="21"/>
+      <c r="X81" s="26"/>
+      <c r="Y81" s="21"/>
+      <c r="Z81" s="26"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="40"/>
+      <c r="AC81" s="21"/>
+      <c r="AD81" s="40"/>
+      <c r="AE81" s="21"/>
+      <c r="AF81" s="26"/>
+      <c r="AG81" s="21"/>
+    </row>
+    <row r="82" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S82" s="35"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="21"/>
+      <c r="X82" s="26"/>
+      <c r="Y82" s="21"/>
+      <c r="Z82" s="26"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="40"/>
+      <c r="AC82" s="21"/>
+      <c r="AD82" s="40"/>
+      <c r="AE82" s="21"/>
+      <c r="AF82" s="26"/>
+      <c r="AG82" s="21"/>
+    </row>
+    <row r="83" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R83" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" s="36"/>
+      <c r="T83" s="53"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="48"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="48"/>
+      <c r="Y83" s="46"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="46"/>
+      <c r="AB83" s="50"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="50"/>
+      <c r="AE83" s="46"/>
+      <c r="AF83" s="48"/>
+      <c r="AG83" s="46"/>
+    </row>
+    <row r="84" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="52"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="26"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="26"/>
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="40"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="40"/>
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="26"/>
+      <c r="AG84" s="21"/>
+    </row>
+    <row r="85" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R85" s="5"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="41"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="41"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S86" s="20"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="18"/>
+    </row>
+    <row r="87" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S87" s="23"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="7"/>
+    </row>
+    <row r="88" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="18:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R97" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="S97" s="49"/>
+      <c r="T97" s="47"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="48"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="48"/>
+      <c r="Y97" s="46"/>
+      <c r="Z97" s="61"/>
+      <c r="AA97" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB97" s="47"/>
+      <c r="AC97" s="46"/>
+      <c r="AD97" s="50"/>
+      <c r="AE97" s="46"/>
+      <c r="AF97" s="48"/>
+      <c r="AG97" s="46"/>
+    </row>
+    <row r="98" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R98" s="52"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="24"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="63"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="26"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="58"/>
+      <c r="AA98" s="21"/>
+      <c r="AB98" s="24"/>
+      <c r="AC98" s="21"/>
+      <c r="AD98" s="40"/>
+      <c r="AE98" s="21"/>
+      <c r="AF98" s="26"/>
+      <c r="AG98" s="21"/>
+    </row>
+    <row r="99" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S99" s="35"/>
+      <c r="T99" s="24"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="26"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="26"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="58"/>
+      <c r="AA99" s="21"/>
+      <c r="AB99" s="24"/>
+      <c r="AC99" s="21"/>
+      <c r="AD99" s="40"/>
+      <c r="AE99" s="21"/>
+      <c r="AF99" s="26"/>
+      <c r="AG99" s="21"/>
+    </row>
+    <row r="100" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R100" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="S100" s="36"/>
+      <c r="T100" s="53"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="48"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="48"/>
+      <c r="Y100" s="46"/>
+      <c r="Z100" s="61"/>
+      <c r="AA100" s="46"/>
+      <c r="AB100" s="47"/>
+      <c r="AC100" s="11"/>
+      <c r="AD100" s="50"/>
+      <c r="AE100" s="46"/>
+      <c r="AF100" s="48"/>
+      <c r="AG100" s="46"/>
+    </row>
+    <row r="101" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R101" s="52"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="24"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="26"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="26"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="58"/>
+      <c r="AA101" s="21"/>
+      <c r="AB101" s="24"/>
+      <c r="AC101" s="21"/>
+      <c r="AD101" s="40"/>
+      <c r="AE101" s="21"/>
+      <c r="AF101" s="26"/>
+      <c r="AG101" s="21"/>
+    </row>
+    <row r="102" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R102" s="5"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="27"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="62"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="25"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="41"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="27"/>
+      <c r="AG102" s="1"/>
+    </row>
+    <row r="103" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S103" s="20"/>
+      <c r="T103" s="28"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="28"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="28"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="28"/>
+      <c r="AA103" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE103" s="6"/>
+      <c r="AG103" s="6"/>
+    </row>
+    <row r="104" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S104" s="23"/>
+      <c r="T104" s="28"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="28"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="28"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="28"/>
+      <c r="AA104" s="6"/>
+      <c r="AC104" s="6"/>
+      <c r="AE104" s="6"/>
+      <c r="AG104" s="6"/>
+    </row>
+    <row r="105" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="AH108" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U109" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH109" s="18"/>
+    </row>
+    <row r="110" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="AH110" s="7"/>
+    </row>
+    <row r="111" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="T111" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="U111" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R114" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="18:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R116" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="S116" s="49"/>
+      <c r="T116" s="47"/>
+      <c r="U116" s="46"/>
+      <c r="V116" s="61"/>
+      <c r="W116" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="X116" s="47"/>
+      <c r="Y116" s="46"/>
+      <c r="Z116" s="48"/>
+      <c r="AA116" s="46"/>
+      <c r="AB116" s="48"/>
+      <c r="AC116" s="46"/>
+      <c r="AD116" s="48"/>
+      <c r="AE116" s="46"/>
+      <c r="AF116" s="48"/>
+      <c r="AG116" s="46"/>
+    </row>
+    <row r="117" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R117" s="52"/>
+      <c r="S117" s="35"/>
+      <c r="T117" s="24"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="40"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="40"/>
+      <c r="Y117" s="21"/>
+      <c r="Z117" s="26"/>
+      <c r="AA117" s="21"/>
+      <c r="AB117" s="26"/>
+      <c r="AC117" s="21"/>
+      <c r="AD117" s="26"/>
+      <c r="AE117" s="21"/>
+      <c r="AF117" s="26"/>
+      <c r="AG117" s="21"/>
+    </row>
+    <row r="118" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S118" s="35"/>
+      <c r="T118" s="24"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="40"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="40"/>
+      <c r="Y118" s="21"/>
+      <c r="Z118" s="26"/>
+      <c r="AA118" s="21"/>
+      <c r="AB118" s="26"/>
+      <c r="AC118" s="21"/>
+      <c r="AD118" s="26"/>
+      <c r="AE118" s="21"/>
+      <c r="AF118" s="26"/>
+      <c r="AG118" s="21"/>
+    </row>
+    <row r="119" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R119" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="S119" s="36"/>
+      <c r="T119" s="38"/>
+      <c r="U119" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="V119" s="47"/>
+      <c r="W119" s="46"/>
+      <c r="X119" s="50"/>
+      <c r="Y119" s="64"/>
+      <c r="Z119" s="38"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="38"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="48"/>
+      <c r="AE119" s="46"/>
+      <c r="AF119" s="48"/>
+      <c r="AG119" s="46"/>
+    </row>
+    <row r="120" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R120" s="52"/>
+      <c r="S120" s="35"/>
+      <c r="T120" s="24"/>
+      <c r="U120" s="21"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="40"/>
+      <c r="Y120" s="21"/>
+      <c r="Z120" s="26"/>
+      <c r="AA120" s="21"/>
+      <c r="AB120" s="26"/>
+      <c r="AC120" s="21"/>
+      <c r="AD120" s="26"/>
+      <c r="AE120" s="21"/>
+      <c r="AF120" s="26"/>
+      <c r="AG120" s="21"/>
+    </row>
+    <row r="121" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R121" s="5"/>
+      <c r="S121" s="37"/>
+      <c r="T121" s="25"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="41"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="41"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="27"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="27"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="27"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="27"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S122" s="20"/>
+      <c r="T122" s="28"/>
+      <c r="U122" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="V122" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W122" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="X122" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="28"/>
+      <c r="AA122" s="6"/>
+      <c r="AC122" s="6"/>
+      <c r="AE122" s="6"/>
+      <c r="AG122" s="6"/>
+      <c r="AH122" s="18"/>
+    </row>
+    <row r="123" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S123" s="23"/>
+      <c r="T123" s="28"/>
+      <c r="U123" s="6"/>
+      <c r="V123" s="28"/>
+      <c r="W123" s="6"/>
+      <c r="X123" s="28"/>
+      <c r="Y123" s="6"/>
+      <c r="Z123" s="28"/>
+      <c r="AA123" s="6"/>
+      <c r="AC123" s="6"/>
+      <c r="AE123" s="6"/>
+      <c r="AG123" s="6"/>
+    </row>
+    <row r="124" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S124" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U126" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R134" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="S134" s="49"/>
+      <c r="T134" s="48"/>
+      <c r="U134" s="46"/>
+      <c r="V134" s="50"/>
+      <c r="W134" s="68"/>
+      <c r="X134" s="48"/>
+      <c r="Y134" s="46"/>
+      <c r="Z134" s="48"/>
+      <c r="AA134" s="46"/>
+      <c r="AB134" s="48"/>
+      <c r="AC134" s="46"/>
+      <c r="AD134" s="48"/>
+      <c r="AE134" s="46"/>
+      <c r="AF134" s="48"/>
+      <c r="AG134" s="46"/>
+    </row>
+    <row r="135" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R135" s="52"/>
+      <c r="S135" s="35"/>
+      <c r="T135" s="26"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="40"/>
+      <c r="W135" s="21"/>
+      <c r="X135" s="26"/>
+      <c r="Y135" s="21"/>
+      <c r="Z135" s="26"/>
+      <c r="AA135" s="21"/>
+      <c r="AB135" s="26"/>
+      <c r="AC135" s="21"/>
+      <c r="AD135" s="26"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="26"/>
+      <c r="AG135" s="21"/>
+    </row>
+    <row r="136" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S136" s="35"/>
+      <c r="T136" s="26"/>
+      <c r="U136" s="21"/>
+      <c r="V136" s="40"/>
+      <c r="W136" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="X136" s="26"/>
+      <c r="Y136" s="21"/>
+      <c r="Z136" s="26"/>
+      <c r="AA136" s="21"/>
+      <c r="AB136" s="26"/>
+      <c r="AC136" s="21"/>
+      <c r="AD136" s="26"/>
+      <c r="AE136" s="21"/>
+      <c r="AF136" s="26"/>
+      <c r="AG136" s="21"/>
+    </row>
+    <row r="137" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R137" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="S137" s="36"/>
+      <c r="T137" s="38"/>
+      <c r="U137" s="67"/>
+      <c r="V137" s="50"/>
+      <c r="W137" s="46"/>
+      <c r="X137" s="48"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="38"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="38"/>
+      <c r="AC137" s="2"/>
+      <c r="AD137" s="48"/>
+      <c r="AE137" s="46"/>
+      <c r="AF137" s="48"/>
+      <c r="AG137" s="46"/>
+    </row>
+    <row r="138" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R138" s="52"/>
+      <c r="S138" s="35"/>
+      <c r="T138" s="26"/>
+      <c r="U138" s="21"/>
+      <c r="V138" s="40"/>
+      <c r="W138" s="21"/>
+      <c r="X138" s="26"/>
+      <c r="Y138" s="21"/>
+      <c r="Z138" s="26"/>
+      <c r="AA138" s="21"/>
+      <c r="AB138" s="26"/>
+      <c r="AC138" s="21"/>
+      <c r="AD138" s="26"/>
+      <c r="AE138" s="21"/>
+      <c r="AF138" s="26"/>
+      <c r="AG138" s="21"/>
+    </row>
+    <row r="139" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R139" s="5"/>
+      <c r="S139" s="37"/>
+      <c r="T139" s="27"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="41"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="27"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="27"/>
+      <c r="AA139" s="1"/>
+      <c r="AB139" s="27"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="27"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="27"/>
+      <c r="AG139" s="1"/>
+      <c r="AH139" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S140" s="20"/>
+      <c r="T140" s="28"/>
+      <c r="V140" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W140" s="28"/>
+      <c r="X140" s="28"/>
+      <c r="Y140" s="6"/>
+      <c r="Z140" s="28"/>
+      <c r="AA140" s="6"/>
+      <c r="AC140" s="6"/>
+      <c r="AE140" s="6"/>
+      <c r="AG140" s="6"/>
+      <c r="AH140" s="18"/>
+    </row>
+    <row r="141" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S141" s="23"/>
+      <c r="T141" s="28"/>
+      <c r="U141" s="6"/>
+      <c r="V141" s="28"/>
+      <c r="W141" s="6"/>
+      <c r="X141" s="28"/>
+      <c r="Y141" s="6"/>
+      <c r="Z141" s="28"/>
+      <c r="AA141" s="6"/>
+      <c r="AC141" s="6"/>
+      <c r="AE141" s="6"/>
+      <c r="AG141" s="6"/>
+    </row>
+    <row r="142" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S142" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="38">
+    <mergeCell ref="R134:R135"/>
+    <mergeCell ref="R137:R138"/>
+    <mergeCell ref="AH139:AH140"/>
+    <mergeCell ref="R116:R117"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="AH121:AH122"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="AH108:AH109"/>
+    <mergeCell ref="AH66:AH67"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="R80:R81"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="AH85:AH86"/>
+    <mergeCell ref="AE78:AG78"/>
+    <mergeCell ref="AH48:AH49"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="AE59:AG59"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O30:O31"/>
     <mergeCell ref="O12:O13"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Task_diagram_generator/Moricka_abra/moricka_taszk.xlsx
+++ b/Documents/Task_diagram_generator/Moricka_abra/moricka_taszk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>Taszk A</t>
   </si>
@@ -493,6 +493,77 @@
   <si>
     <t>(üzenet)</t>
   </si>
+  <si>
+    <t>Késleltetett megszakítás-kezelés</t>
+  </si>
+  <si>
+    <t>Megszakítás</t>
+  </si>
+  <si>
+    <t>,,Kezelő´´ Taszk</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Prioritás inverzió</t>
+  </si>
+  <si>
+    <t>Prioritás öröklés</t>
+  </si>
+  <si>
+    <t>: erőforrás visszaadása.</t>
+  </si>
+  <si>
+    <t>Erőforrás tulajdonos</t>
+  </si>
 </sst>
 </file>
 
@@ -570,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -953,15 +1024,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dashed">
         <color auto="1"/>
       </left>
@@ -1002,11 +1064,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal style="dashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="dashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal style="dashed">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1031,9 +1148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1060,22 +1174,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -1111,9 +1213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,32 +1225,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1751,13 +1896,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1803,13 +1948,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1855,13 +2000,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>91678</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>37893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>91678</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>173627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1907,13 +2052,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>138115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1959,13 +2104,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2011,13 +2156,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1360</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>1361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1360</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>155123</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2063,13 +2208,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>91678</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>37893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>91678</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>173627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2115,13 +2260,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>138115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2167,13 +2312,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>91677</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>37893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>91677</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>173627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2220,13 +2365,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>184719</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2273,13 +2418,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>58065</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>187453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>120930</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>25052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2300,6 +2445,1243 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>456194</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122478</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Szabadkézi sokszög 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12210044" y="28870275"/>
+          <a:ext cx="447334" cy="590550"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 324856 w 447334"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 590550"/>
+            <a:gd name="connsiteX1" fmla="*/ 429631 w 447334"/>
+            <a:gd name="connsiteY1" fmla="*/ 104775 h 590550"/>
+            <a:gd name="connsiteX2" fmla="*/ 1006 w 447334"/>
+            <a:gd name="connsiteY2" fmla="*/ 342900 h 590550"/>
+            <a:gd name="connsiteX3" fmla="*/ 334381 w 447334"/>
+            <a:gd name="connsiteY3" fmla="*/ 590550 h 590550"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="447334" h="590550">
+              <a:moveTo>
+                <a:pt x="324856" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="404231" y="23812"/>
+                <a:pt x="483606" y="47625"/>
+                <a:pt x="429631" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="375656" y="161925"/>
+                <a:pt x="16881" y="261938"/>
+                <a:pt x="1006" y="342900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-14869" y="423863"/>
+                <a:pt x="159756" y="507206"/>
+                <a:pt x="334381" y="590550"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="hu-HU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Egyenes összekötő nyíllal 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11363325" y="33051750"/>
+          <a:ext cx="0" cy="152402"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>172811</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>172811</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Egyenes összekötő nyíllal 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12538982" y="31948211"/>
+          <a:ext cx="0" cy="153762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>153763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Egyenes összekötő nyíllal 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14107885" y="33288514"/>
+          <a:ext cx="0" cy="153763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Egyenes összekötő nyíllal 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12360729" y="32101971"/>
+          <a:ext cx="0" cy="1175658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Egyenes összekötő nyíllal 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12545786" y="32107414"/>
+          <a:ext cx="0" cy="1175658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Egyenes összekötő nyíllal 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13155386" y="32700686"/>
+          <a:ext cx="0" cy="593271"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Egyenes összekötő nyíllal 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13933714" y="32700686"/>
+          <a:ext cx="0" cy="593271"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Egyenes összekötő nyíllal 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14113328" y="32107414"/>
+          <a:ext cx="0" cy="1175658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>37893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>173627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Egyenes összekötő nyíllal 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11646236" y="24509816"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Egyenes összekötő nyíllal 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11643855" y="24848161"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Egyenes összekötő nyíllal 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11336948" y="32901548"/>
+          <a:ext cx="0" cy="150204"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>172811</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>172811</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Egyenes összekötő nyíllal 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12504023" y="31729240"/>
+          <a:ext cx="0" cy="150204"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>166845</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>197826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>166845</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>153763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Egyenes összekötő nyíllal 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13274710" y="36722538"/>
+          <a:ext cx="0" cy="153763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604158</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Egyenes összekötő nyíllal 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12327235" y="31883000"/>
+          <a:ext cx="0" cy="1161423"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Egyenes összekötő nyíllal 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12505174" y="31884885"/>
+          <a:ext cx="0" cy="1164981"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>188616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>188615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Egyenes összekötő nyíllal 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14661173" y="35541020"/>
+          <a:ext cx="0" cy="586153"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Egyenes összekötő nyíllal 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13281827" y="35555674"/>
+          <a:ext cx="0" cy="1164981"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="stealth" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>37893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91678</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>173627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Egyenes összekötő nyíllal 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11646236" y="33866297"/>
+          <a:ext cx="0" cy="135734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Egyenes összekötő nyíllal 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11643855" y="34204642"/>
+          <a:ext cx="0" cy="142877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>289937</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>289937</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>156229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Egyenes összekötő nyíllal 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14368352" y="35684403"/>
+          <a:ext cx="0" cy="155728"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>154718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Egyenes összekötő nyíllal 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="15182022" y="31987434"/>
+          <a:ext cx="0" cy="154719"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2733</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>59251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2733</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>11627</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Egyenes összekötő nyíllal 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13879467" y="19525970"/>
+          <a:ext cx="0" cy="154782"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="oval"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2585,21 +3967,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AH142"/>
+  <dimension ref="D2:AH201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S126" sqref="S126"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="2.5703125" style="22" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" style="22" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="22" customWidth="1"/>
-    <col min="26" max="26" width="2.5703125" style="22" customWidth="1"/>
-    <col min="28" max="28" width="2.5703125" style="22" customWidth="1"/>
-    <col min="30" max="30" width="2.5703125" style="22" customWidth="1"/>
-    <col min="32" max="32" width="2.5703125" style="22" customWidth="1"/>
+    <col min="20" max="20" width="2.5703125" style="21" customWidth="1"/>
+    <col min="22" max="22" width="2.5703125" style="21" customWidth="1"/>
+    <col min="24" max="24" width="2.5703125" style="21" customWidth="1"/>
+    <col min="26" max="26" width="2.5703125" style="21" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" style="21" customWidth="1"/>
+    <col min="30" max="30" width="2.5703125" style="21" customWidth="1"/>
+    <col min="32" max="32" width="2.5703125" style="21" customWidth="1"/>
     <col min="33" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2612,7 +3994,7 @@
       </c>
     </row>
     <row r="4" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="13"/>
@@ -2625,27 +4007,27 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="3"/>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="47"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="42"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="47"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="42"/>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="45"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="40"/>
     </row>
     <row r="5" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="19"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="14"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2655,21 +4037,21 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="R5" s="19"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="24"/>
+      <c r="T5" s="23"/>
       <c r="U5" s="9"/>
-      <c r="V5" s="24"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="24"/>
+      <c r="X5" s="23"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="24"/>
+      <c r="Z5" s="23"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="24"/>
+      <c r="AB5" s="23"/>
       <c r="AC5" s="9"/>
-      <c r="AD5" s="24"/>
+      <c r="AD5" s="23"/>
       <c r="AE5" s="9"/>
-      <c r="AF5" s="24"/>
+      <c r="AF5" s="23"/>
       <c r="AG5" s="9"/>
     </row>
     <row r="6" spans="4:34" x14ac:dyDescent="0.25">
@@ -2683,23 +4065,23 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="24"/>
+      <c r="T6" s="23"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="24"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="23"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="23"/>
       <c r="AA6" s="9"/>
-      <c r="AB6" s="24"/>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="24"/>
+      <c r="AD6" s="23"/>
       <c r="AE6" s="9"/>
-      <c r="AF6" s="24"/>
+      <c r="AF6" s="23"/>
       <c r="AG6" s="9"/>
     </row>
     <row r="7" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="15"/>
@@ -2712,27 +4094,27 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="4"/>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="47"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="42"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="47"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
       <c r="AA7" s="10"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="47"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="42"/>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="19"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="14"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2742,21 +4124,21 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="R8" s="19"/>
+      <c r="R8" s="69"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="24"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="9"/>
-      <c r="V8" s="24"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="9"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="23"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="24"/>
+      <c r="Z8" s="23"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="24"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="24"/>
+      <c r="AD8" s="23"/>
       <c r="AE8" s="9"/>
-      <c r="AF8" s="24"/>
+      <c r="AF8" s="23"/>
       <c r="AG8" s="9"/>
     </row>
     <row r="9" spans="4:34" x14ac:dyDescent="0.25">
@@ -2770,23 +4152,23 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="24"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="24"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="9"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="23"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="24"/>
+      <c r="Z9" s="23"/>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="24"/>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="24"/>
+      <c r="AD9" s="23"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="24"/>
+      <c r="AF9" s="23"/>
       <c r="AG9" s="9"/>
     </row>
     <row r="10" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="69" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="16"/>
@@ -2799,27 +4181,27 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="2"/>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="69" t="s">
         <v>0</v>
       </c>
       <c r="S10" s="16"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="47"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="42"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="47"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="42"/>
       <c r="AE10" s="11"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="45"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="40"/>
     </row>
     <row r="11" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="19"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="14"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2829,21 +4211,21 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="R11" s="19"/>
+      <c r="R11" s="69"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="24"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="24"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="24"/>
+      <c r="Z11" s="23"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="24"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="24"/>
+      <c r="AD11" s="23"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="24"/>
+      <c r="AF11" s="23"/>
       <c r="AG11" s="9"/>
     </row>
     <row r="12" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2858,31 +4240,31 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="65" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="25"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="12"/>
-      <c r="V12" s="25"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="25"/>
+      <c r="X12" s="24"/>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="24"/>
       <c r="AA12" s="12"/>
-      <c r="AB12" s="25"/>
+      <c r="AB12" s="24"/>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="25"/>
+      <c r="AD12" s="24"/>
       <c r="AE12" s="12"/>
-      <c r="AF12" s="25"/>
+      <c r="AF12" s="24"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="18" t="s">
+      <c r="AH12" s="65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="4:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2902,26 +4284,26 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="18"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="28" t="s">
+      <c r="O13" s="65"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="27" t="s">
         <v>23</v>
       </c>
       <c r="U13" s="6"/>
-      <c r="V13" s="28" t="s">
+      <c r="V13" s="27" t="s">
         <v>12</v>
       </c>
       <c r="W13" s="6"/>
-      <c r="X13" s="28" t="s">
+      <c r="X13" s="27" t="s">
         <v>13</v>
       </c>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="28"/>
+      <c r="Z13" s="27"/>
       <c r="AA13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AG13" s="6"/>
-      <c r="AH13" s="18"/>
+      <c r="AH13" s="65"/>
     </row>
     <row r="15" spans="4:34" ht="18" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
@@ -2942,40 +4324,40 @@
       </c>
     </row>
     <row r="22" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="46"/>
-      <c r="R22" s="29" t="s">
+      <c r="N22" s="41"/>
+      <c r="R22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="43"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="43"/>
+      <c r="Z22" s="38"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="43"/>
+      <c r="AB22" s="38"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="46"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="41"/>
     </row>
     <row r="23" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="19"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="14"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2985,22 +4367,22 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="R23" s="29"/>
+      <c r="R23" s="64"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="24"/>
+      <c r="T23" s="23"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="21"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="20"/>
     </row>
     <row r="24" spans="4:34" x14ac:dyDescent="0.25">
       <c r="E24" s="14"/>
@@ -3013,56 +4395,56 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="S24" s="14"/>
-      <c r="T24" s="24"/>
+      <c r="T24" s="23"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="21"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="20"/>
     </row>
     <row r="25" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46"/>
-      <c r="R25" s="29" t="s">
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="R25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="47"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="42"/>
       <c r="U25" s="10"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="48"/>
-      <c r="AG25" s="46"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="41"/>
     </row>
     <row r="26" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="19"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="14"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3072,22 +4454,22 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="R26" s="29"/>
+      <c r="R26" s="64"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="24"/>
+      <c r="T26" s="23"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="21"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="20"/>
     </row>
     <row r="27" spans="4:34" x14ac:dyDescent="0.25">
       <c r="E27" s="14"/>
@@ -3100,56 +4482,56 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="24"/>
+      <c r="T27" s="23"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="21"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="20"/>
     </row>
     <row r="28" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="69" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
       <c r="N28" s="2"/>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="64" t="s">
         <v>18</v>
       </c>
       <c r="S28" s="16"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="46"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="41"/>
     </row>
     <row r="29" spans="4:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="19"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="14"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -3159,22 +4541,22 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="R29" s="29"/>
+      <c r="R29" s="64"/>
       <c r="S29" s="14"/>
-      <c r="T29" s="24"/>
+      <c r="T29" s="23"/>
       <c r="U29" s="9"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="21"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="20"/>
     </row>
     <row r="30" spans="4:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="5"/>
@@ -3188,31 +4570,31 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="65" t="s">
         <v>3</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="25"/>
+      <c r="T30" s="24"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="25"/>
+      <c r="V30" s="24"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="27"/>
+      <c r="X30" s="26"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="27"/>
+      <c r="Z30" s="26"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="27"/>
+      <c r="AB30" s="26"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="27"/>
+      <c r="AD30" s="26"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="27"/>
+      <c r="AF30" s="26"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="18" t="s">
+      <c r="AH30" s="65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="4:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -3232,34 +4614,34 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="18"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="28" t="s">
+      <c r="O31" s="65"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="27" t="s">
         <v>11</v>
       </c>
       <c r="U31" s="6"/>
-      <c r="V31" s="28" t="s">
+      <c r="V31" s="27" t="s">
         <v>12</v>
       </c>
       <c r="W31" s="6"/>
-      <c r="X31" s="28"/>
+      <c r="X31" s="27"/>
       <c r="Y31" s="6"/>
-      <c r="Z31" s="28"/>
+      <c r="Z31" s="27"/>
       <c r="AA31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AE31" s="6"/>
       <c r="AG31" s="6"/>
-      <c r="AH31" s="18"/>
+      <c r="AH31" s="65"/>
     </row>
     <row r="32" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="S32" s="23"/>
-      <c r="T32" s="28"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="27"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="28"/>
+      <c r="V32" s="27"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="28"/>
+      <c r="X32" s="27"/>
       <c r="Y32" s="6"/>
-      <c r="Z32" s="28"/>
+      <c r="Z32" s="27"/>
       <c r="AA32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AE32" s="6"/>
@@ -3277,190 +4659,190 @@
       </c>
     </row>
     <row r="40" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R40" s="32"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="33"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="29"/>
     </row>
     <row r="41" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R41" s="32"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="33"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="29"/>
     </row>
     <row r="42" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S42" s="35"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="21"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="20"/>
     </row>
     <row r="43" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R43" s="30" t="s">
+      <c r="R43" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="49"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="50"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="45"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="39"/>
+      <c r="Z43" s="34"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="46"/>
+      <c r="AB43" s="43"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="43"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="43"/>
+      <c r="AG43" s="41"/>
     </row>
     <row r="44" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R44" s="30"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="21"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="20"/>
     </row>
     <row r="45" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S45" s="35"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="21"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="20"/>
     </row>
     <row r="46" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R46" s="34" t="s">
+      <c r="R46" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="S46" s="36"/>
-      <c r="T46" s="38"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="33"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="38"/>
+      <c r="V46" s="33"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="48"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="43"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="38"/>
+      <c r="AD46" s="33"/>
       <c r="AE46" s="2"/>
-      <c r="AF46" s="38"/>
+      <c r="AF46" s="33"/>
       <c r="AG46" s="2"/>
     </row>
     <row r="47" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R47" s="34"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="26"/>
-      <c r="AG47" s="21"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="20"/>
     </row>
     <row r="48" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R48" s="5"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="27"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="26"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="51" t="s">
+      <c r="V48" s="26"/>
+      <c r="W48" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="X48" s="41"/>
+      <c r="X48" s="36"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="27"/>
+      <c r="Z48" s="26"/>
       <c r="AA48" s="1"/>
-      <c r="AB48" s="27"/>
+      <c r="AB48" s="26"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="27"/>
+      <c r="AD48" s="26"/>
       <c r="AE48" s="1"/>
-      <c r="AF48" s="27"/>
+      <c r="AF48" s="26"/>
       <c r="AG48" s="1"/>
-      <c r="AH48" s="18" t="s">
+      <c r="AH48" s="65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S49" s="20"/>
-      <c r="T49" s="28"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="27"/>
       <c r="U49" s="6"/>
-      <c r="V49" s="28"/>
+      <c r="V49" s="27"/>
       <c r="W49" s="6"/>
-      <c r="X49" s="28" t="s">
+      <c r="X49" s="27" t="s">
         <v>22</v>
       </c>
       <c r="Y49" s="6"/>
-      <c r="Z49" s="28"/>
+      <c r="Z49" s="27"/>
       <c r="AA49" s="6"/>
       <c r="AC49" s="6"/>
       <c r="AE49" s="6"/>
       <c r="AG49" s="6"/>
-      <c r="AH49" s="18"/>
+      <c r="AH49" s="65"/>
     </row>
     <row r="51" spans="18:34" x14ac:dyDescent="0.25">
       <c r="S51" t="s">
@@ -3479,205 +4861,205 @@
     </row>
     <row r="57" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R58" s="31" t="s">
+      <c r="R58" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="S58" s="49"/>
-      <c r="T58" s="48"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="55"/>
-      <c r="Y58" s="55" t="s">
+      <c r="S58" s="44"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="49"/>
+      <c r="Y58" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="55"/>
-      <c r="AC58" s="57"/>
-      <c r="AD58" s="47"/>
-      <c r="AE58" s="21"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="21"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="25"/>
+      <c r="AG58" s="20"/>
     </row>
     <row r="59" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R59" s="31"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="24"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="21"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="21"/>
-      <c r="AD59" s="58"/>
-      <c r="AE59" s="59" t="s">
+      <c r="R59" s="70"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="AF59" s="60"/>
-      <c r="AG59" s="60"/>
+      <c r="AF59" s="72"/>
+      <c r="AG59" s="72"/>
     </row>
     <row r="60" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S60" s="35"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="40"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="21"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="20"/>
     </row>
     <row r="61" spans="18:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R61" s="52" t="s">
+      <c r="R61" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="S61" s="49"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="48"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="43"/>
       <c r="W61" s="4"/>
-      <c r="X61" s="39"/>
+      <c r="X61" s="34"/>
       <c r="Y61" s="4"/>
-      <c r="Z61" s="39"/>
+      <c r="Z61" s="34"/>
       <c r="AA61" s="4"/>
-      <c r="AB61" s="48"/>
-      <c r="AC61" s="46"/>
-      <c r="AD61" s="50"/>
+      <c r="AB61" s="43"/>
+      <c r="AC61" s="41"/>
+      <c r="AD61" s="45"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="39"/>
+      <c r="AF61" s="34"/>
       <c r="AG61" s="4"/>
     </row>
     <row r="62" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R62" s="52"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="24"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="21"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="21"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="25"/>
+      <c r="AG62" s="20"/>
     </row>
     <row r="63" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S63" s="35"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="26"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="26"/>
-      <c r="AA63" s="21"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="21"/>
-      <c r="AD63" s="40"/>
-      <c r="AE63" s="21"/>
-      <c r="AF63" s="26"/>
-      <c r="AG63" s="21"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="20"/>
     </row>
     <row r="64" spans="18:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R64" s="52" t="s">
+      <c r="R64" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="S64" s="36"/>
-      <c r="T64" s="53"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="47"/>
       <c r="U64" s="2"/>
-      <c r="V64" s="48"/>
-      <c r="W64" s="46"/>
-      <c r="X64" s="48"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="48"/>
-      <c r="AA64" s="46"/>
-      <c r="AB64" s="48"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="41"/>
+      <c r="AB64" s="43"/>
       <c r="AC64" s="2"/>
-      <c r="AD64" s="50"/>
-      <c r="AE64" s="46"/>
-      <c r="AF64" s="48"/>
-      <c r="AG64" s="46"/>
+      <c r="AD64" s="45"/>
+      <c r="AE64" s="41"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="41"/>
     </row>
     <row r="65" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R65" s="52"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="26"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="26"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="40"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="26"/>
-      <c r="AG65" s="21"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="25"/>
+      <c r="AG65" s="20"/>
     </row>
     <row r="66" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R66" s="5"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="25"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="24"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="27"/>
+      <c r="V66" s="26"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="27"/>
+      <c r="X66" s="26"/>
       <c r="Y66" s="1"/>
-      <c r="Z66" s="27"/>
+      <c r="Z66" s="26"/>
       <c r="AA66" s="1"/>
-      <c r="AB66" s="27"/>
+      <c r="AB66" s="26"/>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="41"/>
+      <c r="AD66" s="36"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="27"/>
+      <c r="AF66" s="26"/>
       <c r="AG66" s="1"/>
-      <c r="AH66" s="18" t="s">
+      <c r="AH66" s="65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S67" s="20"/>
-      <c r="T67" s="28"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="27"/>
       <c r="U67" s="6"/>
-      <c r="V67" s="28"/>
+      <c r="V67" s="27"/>
       <c r="W67" s="6"/>
-      <c r="X67" s="28"/>
+      <c r="X67" s="27"/>
       <c r="Y67" s="6"/>
-      <c r="Z67" s="28"/>
+      <c r="Z67" s="27"/>
       <c r="AA67" s="6"/>
       <c r="AC67" s="6"/>
-      <c r="AD67" s="28" t="s">
+      <c r="AD67" s="27" t="s">
         <v>22</v>
       </c>
       <c r="AE67" s="6"/>
       <c r="AG67" s="6"/>
-      <c r="AH67" s="18"/>
+      <c r="AH67" s="65"/>
     </row>
     <row r="68" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S68" s="23"/>
-      <c r="T68" s="28"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="27"/>
       <c r="U68" s="6"/>
-      <c r="V68" s="28"/>
+      <c r="V68" s="27"/>
       <c r="W68" s="6"/>
-      <c r="X68" s="28"/>
+      <c r="X68" s="27"/>
       <c r="Y68" s="6"/>
-      <c r="Z68" s="28"/>
+      <c r="Z68" s="27"/>
       <c r="AA68" s="6"/>
       <c r="AC68" s="6"/>
       <c r="AE68" s="6"/>
@@ -3706,208 +5088,208 @@
     </row>
     <row r="76" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R77" s="31" t="s">
+      <c r="R77" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="S77" s="49"/>
-      <c r="T77" s="47"/>
-      <c r="U77" s="54"/>
-      <c r="V77" s="55"/>
-      <c r="W77" s="56"/>
-      <c r="X77" s="55"/>
-      <c r="Y77" s="55" t="s">
+      <c r="S77" s="44"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="48"/>
+      <c r="V77" s="49"/>
+      <c r="W77" s="50"/>
+      <c r="X77" s="49"/>
+      <c r="Y77" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="Z77" s="55"/>
-      <c r="AA77" s="56"/>
-      <c r="AB77" s="55"/>
-      <c r="AC77" s="57"/>
-      <c r="AD77" s="50"/>
-      <c r="AE77" s="46"/>
-      <c r="AF77" s="48"/>
-      <c r="AG77" s="46"/>
+      <c r="Z77" s="49"/>
+      <c r="AA77" s="50"/>
+      <c r="AB77" s="49"/>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="41"/>
+      <c r="AF77" s="43"/>
+      <c r="AG77" s="41"/>
     </row>
     <row r="78" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R78" s="31"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="21"/>
-      <c r="V78" s="26"/>
-      <c r="W78" s="21"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="21"/>
-      <c r="Z78" s="26"/>
-      <c r="AA78" s="21"/>
-      <c r="AB78" s="40"/>
-      <c r="AC78" s="21"/>
-      <c r="AD78" s="40"/>
-      <c r="AE78" s="59" t="s">
+      <c r="R78" s="70"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="35"/>
+      <c r="AE78" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="AF78" s="60"/>
-      <c r="AG78" s="60"/>
+      <c r="AF78" s="72"/>
+      <c r="AG78" s="72"/>
     </row>
     <row r="79" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S79" s="35"/>
-      <c r="T79" s="24"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="21"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="21"/>
-      <c r="AB79" s="40"/>
-      <c r="AC79" s="21"/>
-      <c r="AD79" s="40"/>
-      <c r="AE79" s="21"/>
-      <c r="AF79" s="26"/>
-      <c r="AG79" s="21"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="23"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="25"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="25"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="25"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="35"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="25"/>
+      <c r="AG79" s="20"/>
     </row>
     <row r="80" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R80" s="52" t="s">
+      <c r="R80" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="S80" s="49"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="48"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="43"/>
       <c r="W80" s="4"/>
-      <c r="X80" s="39"/>
+      <c r="X80" s="34"/>
       <c r="Y80" s="4"/>
-      <c r="Z80" s="39"/>
+      <c r="Z80" s="34"/>
       <c r="AA80" s="4"/>
-      <c r="AB80" s="50"/>
-      <c r="AC80" s="46"/>
-      <c r="AD80" s="50"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="41"/>
+      <c r="AD80" s="45"/>
       <c r="AE80" s="4"/>
-      <c r="AF80" s="39"/>
+      <c r="AF80" s="34"/>
       <c r="AG80" s="4"/>
     </row>
     <row r="81" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R81" s="52"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="24"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="26"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="26"/>
-      <c r="Y81" s="21"/>
-      <c r="Z81" s="26"/>
-      <c r="AA81" s="21"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="21"/>
-      <c r="AD81" s="40"/>
-      <c r="AE81" s="21"/>
-      <c r="AF81" s="26"/>
-      <c r="AG81" s="21"/>
+      <c r="R81" s="66"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="25"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="25"/>
+      <c r="AG81" s="20"/>
     </row>
     <row r="82" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S82" s="35"/>
-      <c r="T82" s="24"/>
-      <c r="U82" s="21"/>
-      <c r="V82" s="26"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="26"/>
-      <c r="Y82" s="21"/>
-      <c r="Z82" s="26"/>
-      <c r="AA82" s="21"/>
-      <c r="AB82" s="40"/>
-      <c r="AC82" s="21"/>
-      <c r="AD82" s="40"/>
-      <c r="AE82" s="21"/>
-      <c r="AF82" s="26"/>
-      <c r="AG82" s="21"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="25"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="25"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="25"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="25"/>
+      <c r="AG82" s="20"/>
     </row>
     <row r="83" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R83" s="52" t="s">
+      <c r="R83" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="S83" s="36"/>
-      <c r="T83" s="53"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="47"/>
       <c r="U83" s="2"/>
-      <c r="V83" s="48"/>
-      <c r="W83" s="46"/>
-      <c r="X83" s="48"/>
-      <c r="Y83" s="46"/>
-      <c r="Z83" s="48"/>
-      <c r="AA83" s="46"/>
-      <c r="AB83" s="50"/>
+      <c r="V83" s="43"/>
+      <c r="W83" s="41"/>
+      <c r="X83" s="43"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="43"/>
+      <c r="AA83" s="41"/>
+      <c r="AB83" s="45"/>
       <c r="AC83" s="2"/>
-      <c r="AD83" s="50"/>
-      <c r="AE83" s="46"/>
-      <c r="AF83" s="48"/>
-      <c r="AG83" s="46"/>
+      <c r="AD83" s="45"/>
+      <c r="AE83" s="41"/>
+      <c r="AF83" s="43"/>
+      <c r="AG83" s="41"/>
     </row>
     <row r="84" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R84" s="52"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="26"/>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="40"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="40"/>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="26"/>
-      <c r="AG84" s="21"/>
+      <c r="R84" s="66"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="25"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="25"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="20"/>
     </row>
     <row r="85" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R85" s="5"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="25"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="24"/>
       <c r="U85" s="1"/>
-      <c r="V85" s="27"/>
+      <c r="V85" s="26"/>
       <c r="W85" s="1"/>
-      <c r="X85" s="27"/>
+      <c r="X85" s="26"/>
       <c r="Y85" s="1"/>
-      <c r="Z85" s="27"/>
+      <c r="Z85" s="26"/>
       <c r="AA85" s="1"/>
-      <c r="AB85" s="41"/>
+      <c r="AB85" s="36"/>
       <c r="AC85" s="1"/>
-      <c r="AD85" s="41"/>
+      <c r="AD85" s="36"/>
       <c r="AE85" s="1"/>
-      <c r="AF85" s="27"/>
+      <c r="AF85" s="26"/>
       <c r="AG85" s="1"/>
-      <c r="AH85" s="18" t="s">
+      <c r="AH85" s="65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="18:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="S86" s="20"/>
-      <c r="T86" s="28"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="27"/>
       <c r="U86" s="6"/>
-      <c r="V86" s="28"/>
+      <c r="V86" s="27"/>
       <c r="W86" s="6"/>
-      <c r="X86" s="28"/>
+      <c r="X86" s="27"/>
       <c r="Y86" s="6"/>
-      <c r="Z86" s="28"/>
+      <c r="Z86" s="27"/>
       <c r="AA86" s="6"/>
-      <c r="AB86" s="28" t="s">
+      <c r="AB86" s="27" t="s">
         <v>23</v>
       </c>
       <c r="AC86" s="6"/>
-      <c r="AD86" s="28" t="s">
+      <c r="AD86" s="27" t="s">
         <v>12</v>
       </c>
       <c r="AE86" s="6"/>
       <c r="AG86" s="6"/>
-      <c r="AH86" s="18"/>
+      <c r="AH86" s="65"/>
     </row>
     <row r="87" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S87" s="23"/>
-      <c r="T87" s="28"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="27"/>
       <c r="U87" s="6"/>
-      <c r="V87" s="28"/>
+      <c r="V87" s="27"/>
       <c r="W87" s="6"/>
-      <c r="X87" s="28"/>
+      <c r="X87" s="27"/>
       <c r="Y87" s="6"/>
-      <c r="Z87" s="28"/>
+      <c r="Z87" s="27"/>
       <c r="AA87" s="6"/>
       <c r="AC87" s="6"/>
       <c r="AE87" s="6"/>
@@ -3934,530 +5316,1252 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="18:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R97" s="52" t="s">
+    <row r="96" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R97" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="S97" s="44"/>
+      <c r="T97" s="42"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="60"/>
+      <c r="W97" s="50"/>
+      <c r="X97" s="60"/>
+      <c r="Y97" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="60"/>
+      <c r="AA97" s="50"/>
+      <c r="AB97" s="60"/>
+      <c r="AC97" s="51"/>
+      <c r="AD97" s="45"/>
+      <c r="AE97" s="41"/>
+      <c r="AF97" s="43"/>
+      <c r="AG97" s="41"/>
+    </row>
+    <row r="98" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R98" s="70"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="23"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="25"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="25"/>
+      <c r="AA98" s="20"/>
+      <c r="AB98" s="78"/>
+      <c r="AC98" s="20"/>
+      <c r="AD98" s="35"/>
+      <c r="AE98" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF98" s="72"/>
+      <c r="AG98" s="72"/>
+    </row>
+    <row r="99" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S99" s="30"/>
+      <c r="T99" s="23"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="25"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="25"/>
+      <c r="AA99" s="20"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="20"/>
+      <c r="AD99" s="35"/>
+      <c r="AE99" s="20"/>
+      <c r="AF99" s="25"/>
+      <c r="AG99" s="20"/>
+    </row>
+    <row r="100" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R100" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="S100" s="44"/>
+      <c r="T100" s="42"/>
+      <c r="U100" s="74"/>
+      <c r="V100" s="43"/>
+      <c r="W100" s="41"/>
+      <c r="X100" s="43"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="53"/>
+      <c r="AA100" s="43"/>
+      <c r="AB100" s="42"/>
+      <c r="AC100" s="40"/>
+      <c r="AD100" s="45"/>
+      <c r="AE100" s="37"/>
+      <c r="AF100" s="38"/>
+      <c r="AG100" s="3"/>
+    </row>
+    <row r="101" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R101" s="66"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="73"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="52"/>
+      <c r="AA101" s="20"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="20"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="20"/>
+      <c r="AF101" s="25"/>
+      <c r="AG101" s="20"/>
+    </row>
+    <row r="102" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S102" s="30"/>
+      <c r="T102" s="23"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="76"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="52"/>
+      <c r="AA102" s="20"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="20"/>
+      <c r="AD102" s="35"/>
+      <c r="AE102" s="20"/>
+      <c r="AF102" s="25"/>
+      <c r="AG102" s="20"/>
+    </row>
+    <row r="103" spans="18:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R103" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="S97" s="49"/>
-      <c r="T97" s="47"/>
-      <c r="U97" s="46"/>
-      <c r="V97" s="48"/>
-      <c r="W97" s="4"/>
-      <c r="X97" s="48"/>
-      <c r="Y97" s="46"/>
-      <c r="Z97" s="61"/>
-      <c r="AA97" s="39" t="s">
+      <c r="S103" s="44"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="41"/>
+      <c r="V103" s="43"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="41"/>
+      <c r="Z103" s="53"/>
+      <c r="AA103" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AB97" s="47"/>
-      <c r="AC97" s="46"/>
-      <c r="AD97" s="50"/>
-      <c r="AE97" s="46"/>
-      <c r="AF97" s="48"/>
-      <c r="AG97" s="46"/>
-    </row>
-    <row r="98" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R98" s="52"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="21"/>
-      <c r="V98" s="63"/>
-      <c r="W98" s="21"/>
-      <c r="X98" s="26"/>
-      <c r="Y98" s="21"/>
-      <c r="Z98" s="58"/>
-      <c r="AA98" s="21"/>
-      <c r="AB98" s="24"/>
-      <c r="AC98" s="21"/>
-      <c r="AD98" s="40"/>
-      <c r="AE98" s="21"/>
-      <c r="AF98" s="26"/>
-      <c r="AG98" s="21"/>
-    </row>
-    <row r="99" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S99" s="35"/>
-      <c r="T99" s="24"/>
-      <c r="U99" s="21"/>
-      <c r="V99" s="26"/>
-      <c r="W99" s="21"/>
-      <c r="X99" s="26"/>
-      <c r="Y99" s="21"/>
-      <c r="Z99" s="58"/>
-      <c r="AA99" s="21"/>
-      <c r="AB99" s="24"/>
-      <c r="AC99" s="21"/>
-      <c r="AD99" s="40"/>
-      <c r="AE99" s="21"/>
-      <c r="AF99" s="26"/>
-      <c r="AG99" s="21"/>
-    </row>
-    <row r="100" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R100" s="52" t="s">
+      <c r="AB103" s="42"/>
+      <c r="AC103" s="41"/>
+      <c r="AD103" s="45"/>
+      <c r="AE103" s="41"/>
+      <c r="AF103" s="43"/>
+      <c r="AG103" s="41"/>
+    </row>
+    <row r="104" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R104" s="66"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="23"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="W104" s="20"/>
+      <c r="X104" s="25"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="52"/>
+      <c r="AA104" s="20"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="20"/>
+      <c r="AD104" s="35"/>
+      <c r="AE104" s="20"/>
+      <c r="AF104" s="25"/>
+      <c r="AG104" s="20"/>
+    </row>
+    <row r="105" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S105" s="30"/>
+      <c r="T105" s="23"/>
+      <c r="U105" s="20"/>
+      <c r="V105" s="76"/>
+      <c r="W105" s="20"/>
+      <c r="X105" s="25"/>
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="52"/>
+      <c r="AA105" s="20"/>
+      <c r="AB105" s="23"/>
+      <c r="AC105" s="20"/>
+      <c r="AD105" s="35"/>
+      <c r="AE105" s="20"/>
+      <c r="AF105" s="25"/>
+      <c r="AG105" s="20"/>
+    </row>
+    <row r="106" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R106" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="S100" s="36"/>
-      <c r="T100" s="53"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="48"/>
-      <c r="W100" s="46"/>
-      <c r="X100" s="48"/>
-      <c r="Y100" s="46"/>
-      <c r="Z100" s="61"/>
-      <c r="AA100" s="46"/>
-      <c r="AB100" s="47"/>
-      <c r="AC100" s="11"/>
-      <c r="AD100" s="50"/>
-      <c r="AE100" s="46"/>
-      <c r="AF100" s="48"/>
-      <c r="AG100" s="46"/>
-    </row>
-    <row r="101" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R101" s="52"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="24"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="26"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="26"/>
-      <c r="Y101" s="21"/>
-      <c r="Z101" s="58"/>
-      <c r="AA101" s="21"/>
-      <c r="AB101" s="24"/>
-      <c r="AC101" s="21"/>
-      <c r="AD101" s="40"/>
-      <c r="AE101" s="21"/>
-      <c r="AF101" s="26"/>
-      <c r="AG101" s="21"/>
-    </row>
-    <row r="102" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R102" s="5"/>
-      <c r="S102" s="37"/>
-      <c r="T102" s="25"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="62"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="25"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="41"/>
-      <c r="AE102" s="1"/>
-      <c r="AF102" s="27"/>
-      <c r="AG102" s="1"/>
-    </row>
-    <row r="103" spans="18:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="S103" s="20"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="6"/>
-      <c r="V103" s="28"/>
-      <c r="W103" s="6"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="6"/>
-      <c r="Z103" s="28"/>
-      <c r="AA103" s="28" t="s">
+      <c r="S106" s="31"/>
+      <c r="T106" s="47"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="41"/>
+      <c r="X106" s="43"/>
+      <c r="Y106" s="41"/>
+      <c r="Z106" s="53"/>
+      <c r="AA106" s="41"/>
+      <c r="AB106" s="42"/>
+      <c r="AC106" s="11"/>
+      <c r="AD106" s="45"/>
+      <c r="AE106" s="41"/>
+      <c r="AF106" s="43"/>
+      <c r="AG106" s="41"/>
+    </row>
+    <row r="107" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R107" s="66"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="23"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="25"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="25"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="52"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="35"/>
+      <c r="AE107" s="20"/>
+      <c r="AF107" s="25"/>
+      <c r="AG107" s="20"/>
+    </row>
+    <row r="108" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R108" s="5"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="24"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="26"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="54"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="24"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="36"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S109" s="19"/>
+      <c r="T109" s="27"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AC103" s="6"/>
-      <c r="AD103" s="28" t="s">
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AE103" s="6"/>
-      <c r="AG103" s="6"/>
-    </row>
-    <row r="104" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S104" s="23"/>
-      <c r="T104" s="28"/>
-      <c r="U104" s="6"/>
-      <c r="V104" s="28"/>
-      <c r="W104" s="6"/>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="6"/>
-      <c r="Z104" s="28"/>
-      <c r="AA104" s="6"/>
-      <c r="AC104" s="6"/>
-      <c r="AE104" s="6"/>
-      <c r="AG104" s="6"/>
-    </row>
-    <row r="105" spans="18:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="S105" t="s">
+      <c r="AE109" s="6"/>
+      <c r="AG109" s="6"/>
+      <c r="AH109" s="65"/>
+    </row>
+    <row r="110" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S110" s="22"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AE110" s="6"/>
+      <c r="AG110" s="6"/>
+    </row>
+    <row r="111" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S111" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="U107" t="s">
+    <row r="113" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U113" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="AH108" s="18" t="s">
+    <row r="115" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="AH116" s="7"/>
+    </row>
+    <row r="117" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="T117" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R120" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="18:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R122" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="S122" s="44"/>
+      <c r="T122" s="42"/>
+      <c r="U122" s="41"/>
+      <c r="V122" s="53"/>
+      <c r="W122" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="X122" s="42"/>
+      <c r="Y122" s="41"/>
+      <c r="Z122" s="43"/>
+      <c r="AA122" s="41"/>
+      <c r="AB122" s="43"/>
+      <c r="AC122" s="41"/>
+      <c r="AD122" s="43"/>
+      <c r="AE122" s="41"/>
+      <c r="AF122" s="43"/>
+      <c r="AG122" s="41"/>
+    </row>
+    <row r="123" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R123" s="66"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="23"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="35"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="35"/>
+      <c r="Y123" s="20"/>
+      <c r="Z123" s="25"/>
+      <c r="AA123" s="20"/>
+      <c r="AB123" s="25"/>
+      <c r="AC123" s="20"/>
+      <c r="AD123" s="25"/>
+      <c r="AE123" s="20"/>
+      <c r="AF123" s="25"/>
+      <c r="AG123" s="20"/>
+    </row>
+    <row r="124" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S124" s="30"/>
+      <c r="T124" s="23"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="35"/>
+      <c r="W124" s="20"/>
+      <c r="X124" s="35"/>
+      <c r="Y124" s="20"/>
+      <c r="Z124" s="25"/>
+      <c r="AA124" s="20"/>
+      <c r="AB124" s="25"/>
+      <c r="AC124" s="20"/>
+      <c r="AD124" s="25"/>
+      <c r="AE124" s="20"/>
+      <c r="AF124" s="25"/>
+      <c r="AG124" s="20"/>
+    </row>
+    <row r="125" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R125" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="S125" s="31"/>
+      <c r="T125" s="33"/>
+      <c r="U125" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="V125" s="42"/>
+      <c r="W125" s="41"/>
+      <c r="X125" s="45"/>
+      <c r="Y125" s="55"/>
+      <c r="Z125" s="33"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="33"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="43"/>
+      <c r="AE125" s="41"/>
+      <c r="AF125" s="43"/>
+      <c r="AG125" s="41"/>
+    </row>
+    <row r="126" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R126" s="66"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="23"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="35"/>
+      <c r="W126" s="20"/>
+      <c r="X126" s="35"/>
+      <c r="Y126" s="20"/>
+      <c r="Z126" s="25"/>
+      <c r="AA126" s="20"/>
+      <c r="AB126" s="25"/>
+      <c r="AC126" s="20"/>
+      <c r="AD126" s="25"/>
+      <c r="AE126" s="20"/>
+      <c r="AF126" s="25"/>
+      <c r="AG126" s="20"/>
+    </row>
+    <row r="127" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R127" s="5"/>
+      <c r="S127" s="32"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="36"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="36"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="26"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="26"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="26"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="26"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="U109" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH109" s="18"/>
-    </row>
-    <row r="110" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="AH110" s="7"/>
-    </row>
-    <row r="111" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="T111" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="U111" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R114" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="18:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R116" s="52" t="s">
+    <row r="128" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S128" s="19"/>
+      <c r="T128" s="27"/>
+      <c r="U128" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="V128" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="W128" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X128" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y128" s="6"/>
+      <c r="Z128" s="27"/>
+      <c r="AA128" s="6"/>
+      <c r="AC128" s="6"/>
+      <c r="AE128" s="6"/>
+      <c r="AG128" s="6"/>
+      <c r="AH128" s="65"/>
+    </row>
+    <row r="129" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="S129" s="22"/>
+      <c r="T129" s="27"/>
+      <c r="U129" s="6"/>
+      <c r="V129" s="27"/>
+      <c r="W129" s="6"/>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="6"/>
+      <c r="Z129" s="27"/>
+      <c r="AA129" s="6"/>
+      <c r="AC129" s="6"/>
+      <c r="AE129" s="6"/>
+      <c r="AG129" s="6"/>
+    </row>
+    <row r="130" spans="18:33" ht="18" x14ac:dyDescent="0.35">
+      <c r="S130" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="U132" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="U134" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="R138" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="18:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R140" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="S116" s="49"/>
-      <c r="T116" s="47"/>
-      <c r="U116" s="46"/>
-      <c r="V116" s="61"/>
-      <c r="W116" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="X116" s="47"/>
-      <c r="Y116" s="46"/>
-      <c r="Z116" s="48"/>
-      <c r="AA116" s="46"/>
-      <c r="AB116" s="48"/>
-      <c r="AC116" s="46"/>
-      <c r="AD116" s="48"/>
-      <c r="AE116" s="46"/>
-      <c r="AF116" s="48"/>
-      <c r="AG116" s="46"/>
-    </row>
-    <row r="117" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R117" s="52"/>
-      <c r="S117" s="35"/>
-      <c r="T117" s="24"/>
-      <c r="U117" s="21"/>
-      <c r="V117" s="40"/>
-      <c r="W117" s="21"/>
-      <c r="X117" s="40"/>
-      <c r="Y117" s="21"/>
-      <c r="Z117" s="26"/>
-      <c r="AA117" s="21"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="21"/>
-      <c r="AD117" s="26"/>
-      <c r="AE117" s="21"/>
-      <c r="AF117" s="26"/>
-      <c r="AG117" s="21"/>
-    </row>
-    <row r="118" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S118" s="35"/>
-      <c r="T118" s="24"/>
-      <c r="U118" s="21"/>
-      <c r="V118" s="40"/>
-      <c r="W118" s="21"/>
-      <c r="X118" s="40"/>
-      <c r="Y118" s="21"/>
-      <c r="Z118" s="26"/>
-      <c r="AA118" s="21"/>
-      <c r="AB118" s="26"/>
-      <c r="AC118" s="21"/>
-      <c r="AD118" s="26"/>
-      <c r="AE118" s="21"/>
-      <c r="AF118" s="26"/>
-      <c r="AG118" s="21"/>
-    </row>
-    <row r="119" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R119" s="52" t="s">
+      <c r="S140" s="44"/>
+      <c r="T140" s="43"/>
+      <c r="U140" s="41"/>
+      <c r="V140" s="45"/>
+      <c r="W140" s="59"/>
+      <c r="X140" s="43"/>
+      <c r="Y140" s="41"/>
+      <c r="Z140" s="43"/>
+      <c r="AA140" s="41"/>
+      <c r="AB140" s="43"/>
+      <c r="AC140" s="41"/>
+      <c r="AD140" s="43"/>
+      <c r="AE140" s="41"/>
+      <c r="AF140" s="43"/>
+      <c r="AG140" s="41"/>
+    </row>
+    <row r="141" spans="18:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R141" s="66"/>
+      <c r="S141" s="30"/>
+      <c r="T141" s="25"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="35"/>
+      <c r="W141" s="20"/>
+      <c r="X141" s="25"/>
+      <c r="Y141" s="20"/>
+      <c r="Z141" s="25"/>
+      <c r="AA141" s="20"/>
+      <c r="AB141" s="25"/>
+      <c r="AC141" s="20"/>
+      <c r="AD141" s="25"/>
+      <c r="AE141" s="20"/>
+      <c r="AF141" s="25"/>
+      <c r="AG141" s="20"/>
+    </row>
+    <row r="142" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="S142" s="30"/>
+      <c r="T142" s="25"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="35"/>
+      <c r="W142" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="X142" s="25"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="25"/>
+      <c r="AA142" s="20"/>
+      <c r="AB142" s="25"/>
+      <c r="AC142" s="20"/>
+      <c r="AD142" s="25"/>
+      <c r="AE142" s="20"/>
+      <c r="AF142" s="25"/>
+      <c r="AG142" s="20"/>
+    </row>
+    <row r="143" spans="18:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R143" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="S119" s="36"/>
-      <c r="T119" s="38"/>
-      <c r="U119" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="V119" s="47"/>
-      <c r="W119" s="46"/>
-      <c r="X119" s="50"/>
-      <c r="Y119" s="64"/>
-      <c r="Z119" s="38"/>
-      <c r="AA119" s="2"/>
-      <c r="AB119" s="38"/>
-      <c r="AC119" s="2"/>
-      <c r="AD119" s="48"/>
-      <c r="AE119" s="46"/>
-      <c r="AF119" s="48"/>
-      <c r="AG119" s="46"/>
-    </row>
-    <row r="120" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R120" s="52"/>
-      <c r="S120" s="35"/>
-      <c r="T120" s="24"/>
-      <c r="U120" s="21"/>
-      <c r="V120" s="40"/>
-      <c r="W120" s="21"/>
-      <c r="X120" s="40"/>
-      <c r="Y120" s="21"/>
-      <c r="Z120" s="26"/>
-      <c r="AA120" s="21"/>
-      <c r="AB120" s="26"/>
-      <c r="AC120" s="21"/>
-      <c r="AD120" s="26"/>
-      <c r="AE120" s="21"/>
-      <c r="AF120" s="26"/>
-      <c r="AG120" s="21"/>
-    </row>
-    <row r="121" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R121" s="5"/>
-      <c r="S121" s="37"/>
-      <c r="T121" s="25"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="41"/>
-      <c r="W121" s="1"/>
-      <c r="X121" s="41"/>
-      <c r="Y121" s="1"/>
-      <c r="Z121" s="27"/>
-      <c r="AA121" s="1"/>
-      <c r="AB121" s="27"/>
-      <c r="AC121" s="1"/>
-      <c r="AD121" s="27"/>
-      <c r="AE121" s="1"/>
-      <c r="AF121" s="27"/>
-      <c r="AG121" s="1"/>
-      <c r="AH121" s="18" t="s">
+      <c r="S143" s="31"/>
+      <c r="T143" s="33"/>
+      <c r="U143" s="58"/>
+      <c r="V143" s="45"/>
+      <c r="W143" s="41"/>
+      <c r="X143" s="43"/>
+      <c r="Y143" s="2"/>
+      <c r="Z143" s="33"/>
+      <c r="AA143" s="2"/>
+      <c r="AB143" s="33"/>
+      <c r="AC143" s="2"/>
+      <c r="AD143" s="43"/>
+      <c r="AE143" s="41"/>
+      <c r="AF143" s="43"/>
+      <c r="AG143" s="41"/>
+    </row>
+    <row r="144" spans="18:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R144" s="66"/>
+      <c r="S144" s="30"/>
+      <c r="T144" s="25"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="35"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="25"/>
+      <c r="Y144" s="20"/>
+      <c r="Z144" s="25"/>
+      <c r="AA144" s="20"/>
+      <c r="AB144" s="25"/>
+      <c r="AC144" s="20"/>
+      <c r="AD144" s="25"/>
+      <c r="AE144" s="20"/>
+      <c r="AF144" s="25"/>
+      <c r="AG144" s="20"/>
+    </row>
+    <row r="145" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R145" s="5"/>
+      <c r="S145" s="32"/>
+      <c r="T145" s="26"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="36"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="26"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="26"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="26"/>
+      <c r="AC145" s="1"/>
+      <c r="AD145" s="26"/>
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="26"/>
+      <c r="AG145" s="1"/>
+      <c r="AH145" s="65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="18:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="S122" s="20"/>
-      <c r="T122" s="28"/>
-      <c r="U122" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="V122" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="W122" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="X122" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y122" s="6"/>
-      <c r="Z122" s="28"/>
-      <c r="AA122" s="6"/>
-      <c r="AC122" s="6"/>
-      <c r="AE122" s="6"/>
-      <c r="AG122" s="6"/>
-      <c r="AH122" s="18"/>
-    </row>
-    <row r="123" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S123" s="23"/>
-      <c r="T123" s="28"/>
-      <c r="U123" s="6"/>
-      <c r="V123" s="28"/>
-      <c r="W123" s="6"/>
-      <c r="X123" s="28"/>
-      <c r="Y123" s="6"/>
-      <c r="Z123" s="28"/>
-      <c r="AA123" s="6"/>
-      <c r="AC123" s="6"/>
-      <c r="AE123" s="6"/>
-      <c r="AG123" s="6"/>
-    </row>
-    <row r="124" spans="18:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="S124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="U126" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="U128" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R132" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="134" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R134" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="S134" s="49"/>
-      <c r="T134" s="48"/>
-      <c r="U134" s="46"/>
-      <c r="V134" s="50"/>
-      <c r="W134" s="68"/>
-      <c r="X134" s="48"/>
-      <c r="Y134" s="46"/>
-      <c r="Z134" s="48"/>
-      <c r="AA134" s="46"/>
-      <c r="AB134" s="48"/>
-      <c r="AC134" s="46"/>
-      <c r="AD134" s="48"/>
-      <c r="AE134" s="46"/>
-      <c r="AF134" s="48"/>
-      <c r="AG134" s="46"/>
-    </row>
-    <row r="135" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R135" s="52"/>
-      <c r="S135" s="35"/>
-      <c r="T135" s="26"/>
-      <c r="U135" s="21"/>
-      <c r="V135" s="40"/>
-      <c r="W135" s="21"/>
-      <c r="X135" s="26"/>
-      <c r="Y135" s="21"/>
-      <c r="Z135" s="26"/>
-      <c r="AA135" s="21"/>
-      <c r="AB135" s="26"/>
-      <c r="AC135" s="21"/>
-      <c r="AD135" s="26"/>
-      <c r="AE135" s="21"/>
-      <c r="AF135" s="26"/>
-      <c r="AG135" s="21"/>
-    </row>
-    <row r="136" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S136" s="35"/>
-      <c r="T136" s="26"/>
-      <c r="U136" s="21"/>
-      <c r="V136" s="40"/>
-      <c r="W136" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="X136" s="26"/>
-      <c r="Y136" s="21"/>
-      <c r="Z136" s="26"/>
-      <c r="AA136" s="21"/>
-      <c r="AB136" s="26"/>
-      <c r="AC136" s="21"/>
-      <c r="AD136" s="26"/>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="26"/>
-      <c r="AG136" s="21"/>
-    </row>
-    <row r="137" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R137" s="52" t="s">
+    <row r="146" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S146" s="19"/>
+      <c r="T146" s="27"/>
+      <c r="V146" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="W146" s="27"/>
+      <c r="X146" s="27"/>
+      <c r="Y146" s="6"/>
+      <c r="Z146" s="27"/>
+      <c r="AA146" s="6"/>
+      <c r="AC146" s="6"/>
+      <c r="AE146" s="6"/>
+      <c r="AG146" s="6"/>
+      <c r="AH146" s="65"/>
+    </row>
+    <row r="147" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S147" s="22"/>
+      <c r="T147" s="27"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="27"/>
+      <c r="W147" s="6"/>
+      <c r="X147" s="27"/>
+      <c r="Y147" s="6"/>
+      <c r="Z147" s="27"/>
+      <c r="AA147" s="6"/>
+      <c r="AC147" s="6"/>
+      <c r="AE147" s="6"/>
+      <c r="AG147" s="6"/>
+    </row>
+    <row r="148" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R151" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R153" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="S153" s="44"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="41"/>
+      <c r="V153" s="62"/>
+      <c r="W153" s="41"/>
+      <c r="X153" s="43"/>
+      <c r="Y153" s="43"/>
+      <c r="Z153" s="53"/>
+      <c r="AA153" s="41"/>
+      <c r="AB153" s="43"/>
+      <c r="AC153" s="41"/>
+      <c r="AD153" s="43"/>
+      <c r="AE153" s="41"/>
+      <c r="AF153" s="43"/>
+      <c r="AG153" s="41"/>
+    </row>
+    <row r="154" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R154" s="67"/>
+      <c r="S154" s="30"/>
+      <c r="T154" s="25"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="35"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="25"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="52"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="25"/>
+      <c r="AC154" s="20"/>
+      <c r="AD154" s="25"/>
+      <c r="AE154" s="25"/>
+      <c r="AF154" s="25"/>
+      <c r="AG154" s="25"/>
+    </row>
+    <row r="155" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S155" s="30"/>
+      <c r="T155" s="25"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="35"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="25"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="52"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="25"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="25"/>
+      <c r="AE155" s="20"/>
+      <c r="AF155" s="25"/>
+      <c r="AG155" s="20"/>
+    </row>
+    <row r="156" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R156" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="S156" s="44"/>
+      <c r="T156" s="43"/>
+      <c r="U156" s="41"/>
+      <c r="V156" s="45"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="34"/>
+      <c r="Y156" s="4"/>
+      <c r="Z156" s="53"/>
+      <c r="AA156" s="41"/>
+      <c r="AB156" s="43"/>
+      <c r="AC156" s="41"/>
+      <c r="AD156" s="43"/>
+      <c r="AE156" s="41"/>
+      <c r="AF156" s="43"/>
+      <c r="AG156" s="41"/>
+    </row>
+    <row r="157" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R157" s="67"/>
+      <c r="S157" s="30"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="35"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="25"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="52"/>
+      <c r="AA157" s="20"/>
+      <c r="AB157" s="25"/>
+      <c r="AC157" s="20"/>
+      <c r="AD157" s="25"/>
+      <c r="AE157" s="20"/>
+      <c r="AF157" s="25"/>
+      <c r="AG157" s="20"/>
+    </row>
+    <row r="158" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S158" s="30"/>
+      <c r="T158" s="25"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="35"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="25"/>
+      <c r="Y158" s="20"/>
+      <c r="Z158" s="52"/>
+      <c r="AA158" s="20"/>
+      <c r="AB158" s="25"/>
+      <c r="AC158" s="20"/>
+      <c r="AD158" s="25"/>
+      <c r="AE158" s="20"/>
+      <c r="AF158" s="25"/>
+      <c r="AG158" s="20"/>
+    </row>
+    <row r="159" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R159" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="S137" s="36"/>
-      <c r="T137" s="38"/>
-      <c r="U137" s="67"/>
-      <c r="V137" s="50"/>
-      <c r="W137" s="46"/>
-      <c r="X137" s="48"/>
-      <c r="Y137" s="2"/>
-      <c r="Z137" s="38"/>
-      <c r="AA137" s="2"/>
-      <c r="AB137" s="38"/>
-      <c r="AC137" s="2"/>
-      <c r="AD137" s="48"/>
-      <c r="AE137" s="46"/>
-      <c r="AF137" s="48"/>
-      <c r="AG137" s="46"/>
-    </row>
-    <row r="138" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="R138" s="52"/>
-      <c r="S138" s="35"/>
-      <c r="T138" s="26"/>
-      <c r="U138" s="21"/>
-      <c r="V138" s="40"/>
-      <c r="W138" s="21"/>
-      <c r="X138" s="26"/>
-      <c r="Y138" s="21"/>
-      <c r="Z138" s="26"/>
-      <c r="AA138" s="21"/>
-      <c r="AB138" s="26"/>
-      <c r="AC138" s="21"/>
-      <c r="AD138" s="26"/>
-      <c r="AE138" s="21"/>
-      <c r="AF138" s="26"/>
-      <c r="AG138" s="21"/>
-    </row>
-    <row r="139" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R139" s="5"/>
-      <c r="S139" s="37"/>
-      <c r="T139" s="27"/>
-      <c r="U139" s="1"/>
-      <c r="V139" s="41"/>
-      <c r="W139" s="1"/>
-      <c r="X139" s="27"/>
-      <c r="Y139" s="1"/>
-      <c r="Z139" s="27"/>
-      <c r="AA139" s="1"/>
-      <c r="AB139" s="27"/>
-      <c r="AC139" s="1"/>
-      <c r="AD139" s="27"/>
-      <c r="AE139" s="1"/>
-      <c r="AF139" s="27"/>
-      <c r="AG139" s="1"/>
-      <c r="AH139" s="18" t="s">
+      <c r="S159" s="31"/>
+      <c r="T159" s="33"/>
+      <c r="U159" s="2"/>
+      <c r="V159" s="45"/>
+      <c r="W159" s="41"/>
+      <c r="X159" s="43"/>
+      <c r="Y159" s="41"/>
+      <c r="Z159" s="61"/>
+      <c r="AA159" s="2"/>
+      <c r="AB159" s="33"/>
+      <c r="AC159" s="2"/>
+      <c r="AD159" s="33"/>
+      <c r="AE159" s="2"/>
+      <c r="AF159" s="33"/>
+      <c r="AG159" s="2"/>
+    </row>
+    <row r="160" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R160" s="68"/>
+      <c r="S160" s="30"/>
+      <c r="T160" s="25"/>
+      <c r="U160" s="20"/>
+      <c r="V160" s="35"/>
+      <c r="W160" s="20"/>
+      <c r="X160" s="25"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="52"/>
+      <c r="AA160" s="20"/>
+      <c r="AB160" s="25"/>
+      <c r="AC160" s="20"/>
+      <c r="AD160" s="25"/>
+      <c r="AE160" s="20"/>
+      <c r="AF160" s="25"/>
+      <c r="AG160" s="20"/>
+    </row>
+    <row r="161" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R161" s="5"/>
+      <c r="S161" s="32"/>
+      <c r="T161" s="26"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="36"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="26"/>
+      <c r="Y161" s="1"/>
+      <c r="Z161" s="54"/>
+      <c r="AA161" s="1"/>
+      <c r="AB161" s="26"/>
+      <c r="AC161" s="1"/>
+      <c r="AD161" s="26"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="26"/>
+      <c r="AG161" s="1"/>
+      <c r="AH161" s="65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="18:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="S140" s="20"/>
-      <c r="T140" s="28"/>
-      <c r="V140" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="W140" s="28"/>
-      <c r="X140" s="28"/>
-      <c r="Y140" s="6"/>
-      <c r="Z140" s="28"/>
-      <c r="AA140" s="6"/>
-      <c r="AC140" s="6"/>
-      <c r="AE140" s="6"/>
-      <c r="AG140" s="6"/>
-      <c r="AH140" s="18"/>
-    </row>
-    <row r="141" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="S141" s="23"/>
-      <c r="T141" s="28"/>
-      <c r="U141" s="6"/>
-      <c r="V141" s="28"/>
-      <c r="W141" s="6"/>
-      <c r="X141" s="28"/>
-      <c r="Y141" s="6"/>
-      <c r="Z141" s="28"/>
-      <c r="AA141" s="6"/>
-      <c r="AC141" s="6"/>
-      <c r="AE141" s="6"/>
-      <c r="AG141" s="6"/>
-    </row>
-    <row r="142" spans="18:34" ht="18" x14ac:dyDescent="0.35">
-      <c r="S142" t="s">
-        <v>52</v>
+    <row r="162" spans="18:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="S162" s="19"/>
+      <c r="T162" s="63"/>
+      <c r="U162" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V162" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="W162" s="6"/>
+      <c r="X162" s="63"/>
+      <c r="Y162" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z162" s="63"/>
+      <c r="AA162" s="6"/>
+      <c r="AB162" s="63"/>
+      <c r="AC162" s="6"/>
+      <c r="AD162" s="63"/>
+      <c r="AE162" s="6"/>
+      <c r="AF162" s="6"/>
+      <c r="AG162" s="6"/>
+      <c r="AH162" s="65"/>
+    </row>
+    <row r="163" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S163" s="22"/>
+      <c r="T163" s="27"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="27"/>
+      <c r="W163" s="6"/>
+      <c r="X163" s="27"/>
+      <c r="Y163" s="6"/>
+      <c r="Z163" s="27"/>
+      <c r="AA163" s="6"/>
+      <c r="AC163" s="6"/>
+      <c r="AE163" s="6"/>
+      <c r="AG163" s="6"/>
+      <c r="AH163" s="18"/>
+    </row>
+    <row r="167" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R169" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="S169" s="44"/>
+      <c r="T169" s="43"/>
+      <c r="U169" s="41"/>
+      <c r="V169" s="38"/>
+      <c r="W169" s="41"/>
+      <c r="X169" s="43"/>
+      <c r="Y169" s="41"/>
+      <c r="Z169" s="43"/>
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="38"/>
+      <c r="AC169" s="3"/>
+      <c r="AD169" s="43"/>
+      <c r="AE169" s="41"/>
+      <c r="AF169" s="43"/>
+      <c r="AG169" s="41"/>
+    </row>
+    <row r="170" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R170" s="64"/>
+      <c r="S170" s="30"/>
+      <c r="T170" s="25"/>
+      <c r="U170" s="20"/>
+      <c r="V170" s="25"/>
+      <c r="W170" s="20"/>
+      <c r="X170" s="25"/>
+      <c r="Y170" s="20"/>
+      <c r="Z170" s="25"/>
+      <c r="AA170" s="20"/>
+      <c r="AB170" s="25"/>
+      <c r="AC170" s="20"/>
+      <c r="AD170" s="25"/>
+      <c r="AE170" s="20"/>
+      <c r="AF170" s="25"/>
+      <c r="AG170" s="20"/>
+    </row>
+    <row r="171" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S171" s="30"/>
+      <c r="T171" s="25"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="25"/>
+      <c r="W171" s="20"/>
+      <c r="X171" s="25"/>
+      <c r="Y171" s="20"/>
+      <c r="Z171" s="25"/>
+      <c r="AA171" s="20"/>
+      <c r="AB171" s="25"/>
+      <c r="AC171" s="20"/>
+      <c r="AD171" s="25"/>
+      <c r="AE171" s="20"/>
+      <c r="AF171" s="25"/>
+      <c r="AG171" s="20"/>
+    </row>
+    <row r="172" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R172" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="S172" s="44"/>
+      <c r="T172" s="43"/>
+      <c r="U172" s="41"/>
+      <c r="V172" s="43"/>
+      <c r="W172" s="41"/>
+      <c r="X172" s="34"/>
+      <c r="Y172" s="4"/>
+      <c r="Z172" s="43"/>
+      <c r="AA172" s="41"/>
+      <c r="AB172" s="43"/>
+      <c r="AC172" s="41"/>
+      <c r="AD172" s="43"/>
+      <c r="AE172" s="41"/>
+      <c r="AF172" s="43"/>
+      <c r="AG172" s="41"/>
+    </row>
+    <row r="173" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R173" s="64"/>
+      <c r="S173" s="30"/>
+      <c r="T173" s="25"/>
+      <c r="U173" s="20"/>
+      <c r="V173" s="25"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="25"/>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="25"/>
+      <c r="AA173" s="20"/>
+      <c r="AB173" s="25"/>
+      <c r="AC173" s="20"/>
+      <c r="AD173" s="25"/>
+      <c r="AE173" s="20"/>
+      <c r="AF173" s="25"/>
+      <c r="AG173" s="20"/>
+    </row>
+    <row r="174" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S174" s="30"/>
+      <c r="T174" s="25"/>
+      <c r="U174" s="20"/>
+      <c r="V174" s="25"/>
+      <c r="W174" s="20"/>
+      <c r="X174" s="25"/>
+      <c r="Y174" s="20"/>
+      <c r="Z174" s="25"/>
+      <c r="AA174" s="20"/>
+      <c r="AB174" s="25"/>
+      <c r="AC174" s="20"/>
+      <c r="AD174" s="25"/>
+      <c r="AE174" s="20"/>
+      <c r="AF174" s="25"/>
+      <c r="AG174" s="20"/>
+    </row>
+    <row r="175" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R175" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="S175" s="31"/>
+      <c r="T175" s="33"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="43"/>
+      <c r="W175" s="2"/>
+      <c r="X175" s="43"/>
+      <c r="Y175" s="41"/>
+      <c r="Z175" s="33"/>
+      <c r="AA175" s="41"/>
+      <c r="AB175" s="43"/>
+      <c r="AC175" s="41"/>
+      <c r="AD175" s="43"/>
+      <c r="AE175" s="41"/>
+      <c r="AF175" s="43"/>
+      <c r="AG175" s="41"/>
+    </row>
+    <row r="176" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R176" s="64"/>
+      <c r="S176" s="30"/>
+      <c r="T176" s="25"/>
+      <c r="U176" s="20"/>
+      <c r="V176" s="25"/>
+      <c r="W176" s="20"/>
+      <c r="X176" s="25"/>
+      <c r="Y176" s="20"/>
+      <c r="Z176" s="25"/>
+      <c r="AA176" s="20"/>
+      <c r="AB176" s="25"/>
+      <c r="AC176" s="20"/>
+      <c r="AD176" s="25"/>
+      <c r="AE176" s="20"/>
+      <c r="AF176" s="25"/>
+      <c r="AG176" s="20"/>
+    </row>
+    <row r="177" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R177" s="5"/>
+      <c r="S177" s="32"/>
+      <c r="T177" s="26"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="26"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="26"/>
+      <c r="Y177" s="1"/>
+      <c r="Z177" s="26"/>
+      <c r="AA177" s="1"/>
+      <c r="AB177" s="26"/>
+      <c r="AC177" s="1"/>
+      <c r="AD177" s="26"/>
+      <c r="AE177" s="1"/>
+      <c r="AF177" s="26"/>
+      <c r="AG177" s="1"/>
+      <c r="AH177" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S178" s="19"/>
+      <c r="T178" s="27"/>
+      <c r="U178" s="6"/>
+      <c r="V178" s="27"/>
+      <c r="W178" s="6"/>
+      <c r="X178" s="27"/>
+      <c r="Y178" s="6"/>
+      <c r="Z178" s="27"/>
+      <c r="AA178" s="6"/>
+      <c r="AC178" s="6"/>
+      <c r="AE178" s="6"/>
+      <c r="AG178" s="6"/>
+      <c r="AH178" s="65"/>
+    </row>
+    <row r="180" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U180" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U182" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="R186" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R188" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="S188" s="44"/>
+      <c r="T188" s="43"/>
+      <c r="U188" s="41"/>
+      <c r="V188" s="38"/>
+      <c r="W188" s="41"/>
+      <c r="X188" s="43"/>
+      <c r="Y188" s="3"/>
+      <c r="Z188" s="38"/>
+      <c r="AA188" s="3"/>
+      <c r="AB188" s="43"/>
+      <c r="AC188" s="41"/>
+      <c r="AD188" s="43"/>
+      <c r="AE188" s="41"/>
+      <c r="AF188" s="43"/>
+      <c r="AG188" s="41"/>
+    </row>
+    <row r="189" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R189" s="64"/>
+      <c r="S189" s="30"/>
+      <c r="T189" s="25"/>
+      <c r="U189" s="20"/>
+      <c r="V189" s="25"/>
+      <c r="W189" s="20"/>
+      <c r="X189" s="25"/>
+      <c r="Y189" s="20"/>
+      <c r="Z189" s="25"/>
+      <c r="AA189" s="20"/>
+      <c r="AB189" s="25"/>
+      <c r="AC189" s="20"/>
+      <c r="AD189" s="25"/>
+      <c r="AE189" s="20"/>
+      <c r="AF189" s="25"/>
+      <c r="AG189" s="20"/>
+    </row>
+    <row r="190" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S190" s="30"/>
+      <c r="T190" s="25"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="25"/>
+      <c r="W190" s="20"/>
+      <c r="X190" s="25"/>
+      <c r="Y190" s="20"/>
+      <c r="Z190" s="25"/>
+      <c r="AA190" s="20"/>
+      <c r="AB190" s="25"/>
+      <c r="AC190" s="20"/>
+      <c r="AD190" s="25"/>
+      <c r="AE190" s="20"/>
+      <c r="AF190" s="25"/>
+      <c r="AG190" s="20"/>
+    </row>
+    <row r="191" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R191" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="S191" s="44"/>
+      <c r="T191" s="43"/>
+      <c r="U191" s="41"/>
+      <c r="V191" s="43"/>
+      <c r="W191" s="41"/>
+      <c r="X191" s="43"/>
+      <c r="Y191" s="41"/>
+      <c r="Z191" s="43"/>
+      <c r="AA191" s="41"/>
+      <c r="AB191" s="34"/>
+      <c r="AC191" s="34"/>
+      <c r="AD191" s="43"/>
+      <c r="AE191" s="41"/>
+      <c r="AF191" s="43"/>
+      <c r="AG191" s="41"/>
+    </row>
+    <row r="192" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R192" s="64"/>
+      <c r="S192" s="30"/>
+      <c r="T192" s="25"/>
+      <c r="U192" s="20"/>
+      <c r="V192" s="25"/>
+      <c r="W192" s="20"/>
+      <c r="X192" s="25"/>
+      <c r="Y192" s="20"/>
+      <c r="Z192" s="25"/>
+      <c r="AA192" s="20"/>
+      <c r="AB192" s="25"/>
+      <c r="AC192" s="20"/>
+      <c r="AD192" s="25"/>
+      <c r="AE192" s="20"/>
+      <c r="AF192" s="25"/>
+      <c r="AG192" s="20"/>
+    </row>
+    <row r="193" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S193" s="30"/>
+      <c r="T193" s="25"/>
+      <c r="U193" s="20"/>
+      <c r="V193" s="25"/>
+      <c r="W193" s="20"/>
+      <c r="X193" s="25"/>
+      <c r="Y193" s="20"/>
+      <c r="Z193" s="25"/>
+      <c r="AA193" s="20"/>
+      <c r="AB193" s="25"/>
+      <c r="AC193" s="20"/>
+      <c r="AD193" s="25"/>
+      <c r="AE193" s="20"/>
+      <c r="AF193" s="25"/>
+      <c r="AG193" s="20"/>
+    </row>
+    <row r="194" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R194" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="S194" s="31"/>
+      <c r="T194" s="33"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="43"/>
+      <c r="W194" s="2"/>
+      <c r="X194" s="33"/>
+      <c r="Y194" s="41"/>
+      <c r="Z194" s="43"/>
+      <c r="AA194" s="41"/>
+      <c r="AB194" s="43"/>
+      <c r="AC194" s="41"/>
+      <c r="AD194" s="43"/>
+      <c r="AE194" s="41"/>
+      <c r="AF194" s="43"/>
+      <c r="AG194" s="41"/>
+    </row>
+    <row r="195" spans="18:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R195" s="64"/>
+      <c r="S195" s="30"/>
+      <c r="T195" s="25"/>
+      <c r="U195" s="20"/>
+      <c r="V195" s="25"/>
+      <c r="W195" s="20"/>
+      <c r="X195" s="25"/>
+      <c r="Y195" s="20"/>
+      <c r="Z195" s="25"/>
+      <c r="AA195" s="20"/>
+      <c r="AB195" s="25"/>
+      <c r="AC195" s="20"/>
+      <c r="AD195" s="25"/>
+      <c r="AE195" s="20"/>
+      <c r="AF195" s="25"/>
+      <c r="AG195" s="20"/>
+    </row>
+    <row r="196" spans="18:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R196" s="5"/>
+      <c r="S196" s="32"/>
+      <c r="T196" s="26"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="26"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="26"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="26"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="26"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="26"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="26"/>
+      <c r="AG196" s="1"/>
+      <c r="AH196" s="65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="S197" s="19"/>
+      <c r="T197" s="27"/>
+      <c r="U197" s="6"/>
+      <c r="V197" s="27"/>
+      <c r="W197" s="6"/>
+      <c r="X197" s="27"/>
+      <c r="Y197" s="6"/>
+      <c r="Z197" s="27"/>
+      <c r="AA197" s="6"/>
+      <c r="AC197" s="6"/>
+      <c r="AE197" s="6"/>
+      <c r="AG197" s="6"/>
+      <c r="AH197" s="65"/>
+    </row>
+    <row r="199" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U199" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="18:34" x14ac:dyDescent="0.25">
+      <c r="U201" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="R134:R135"/>
-    <mergeCell ref="R137:R138"/>
-    <mergeCell ref="AH139:AH140"/>
-    <mergeCell ref="R116:R117"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="AH121:AH122"/>
+  <mergeCells count="55">
+    <mergeCell ref="X101:X103"/>
     <mergeCell ref="R97:R98"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="AH108:AH109"/>
+    <mergeCell ref="AE98:AG98"/>
     <mergeCell ref="AH66:AH67"/>
     <mergeCell ref="R77:R78"/>
     <mergeCell ref="R80:R81"/>
@@ -4470,26 +6574,49 @@
     <mergeCell ref="R61:R62"/>
     <mergeCell ref="R64:R65"/>
     <mergeCell ref="AE59:AG59"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O30:O31"/>
     <mergeCell ref="AH12:AH13"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R28:R29"/>
     <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="R153:R154"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R43:R44"/>
     <mergeCell ref="R46:R47"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="R140:R141"/>
+    <mergeCell ref="R143:R144"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="R125:R126"/>
+    <mergeCell ref="R194:R195"/>
+    <mergeCell ref="AH196:AH197"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="R172:R173"/>
+    <mergeCell ref="R175:R176"/>
+    <mergeCell ref="AH177:AH178"/>
+    <mergeCell ref="R188:R189"/>
+    <mergeCell ref="R191:R192"/>
+    <mergeCell ref="R156:R157"/>
+    <mergeCell ref="R159:R160"/>
+    <mergeCell ref="AH161:AH162"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="AH108:AH109"/>
+    <mergeCell ref="AH145:AH146"/>
+    <mergeCell ref="AH127:AH128"/>
+    <mergeCell ref="V104:V106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>